--- a/fixtures/Table 1.xlsx
+++ b/fixtures/Table 1.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtsyr/Documents/mentoring-project/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F8E7DD6-9544-2047-BBE2-B229F19B377B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{2393C5AD-4799-B14C-ACAB-89BC8513016D}"/>
+    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6" count="6">
   <si>
     <t>#</t>
   </si>
@@ -48,13 +56,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,7 +96,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -256,53 +264,53 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="67000"/>
+                <a:satMod val="105000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:tint val="73000"/>
+                <a:satMod val="103000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="81000"/>
+                <a:satMod val="109000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
                 <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:shade val="100000"/>
                 <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:shade val="78000"/>
+                <a:satMod val="120000"/>
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -337,7 +345,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -360,16 +368,16 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
+                <a:shade val="98000"/>
                 <a:satMod val="150000"/>
-                <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
+                <a:shade val="90000"/>
                 <a:satMod val="130000"/>
-                <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
@@ -380,7 +388,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -396,23 +404,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69C8091-6F4A-CE48-A417-541466D9B2CB}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" customFormat="false">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" customFormat="false">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -423,7 +431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" customFormat="false">
       <c r="A3">
         <v>1</v>
       </c>
@@ -434,7 +442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" customFormat="false">
       <c r="A4">
         <v>2</v>
       </c>
@@ -443,6 +451,11 @@
       </c>
       <c r="C4">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" customFormat="false">
+      <c r="B5" s="0" t="str">
+        <v>Petro</v>
       </c>
     </row>
   </sheetData>
@@ -451,4 +464,58 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
+  <sheetData/>
+</worksheet>
 </file>